--- a/data/trans_orig/P14A23_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A23_2015-Estudios-trans_orig.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>79,33%</t>
+          <t>77,94%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -788,7 +788,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -809,7 +809,7 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>6,47%</t>
         </is>
       </c>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>88,59%</t>
+          <t>88,15%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
         <v>141</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>154161</v>
+        <v>154160</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
@@ -929,12 +929,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90,57%</t>
+          <t>90,27%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -950,12 +950,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>91,93%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>97,72%</t>
+          <t>97,46%</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,36%</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
         <v>149</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>162596</v>
+        <v>162595</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>89,58%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>98,08%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>94,29%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>97,9%</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,85%</t>
         </is>
       </c>
     </row>
